--- a/biology/Médecine/1389_en_santé_et_médecine/1389_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1389_en_santé_et_médecine/1389_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1389_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1389_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1389 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1389_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1389_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Au procès pour erreur médicale intenté à Marseille au médecin juif Abraham Bondavin, « le choix des experts écarte toute idée de discrimination » et l'enjeu est à situer plutôt entre la pratique médicale conservatrice, scolastique  et humoriste des plaignants et les expérimentations innovantes de l'accusé[1].
-Fondation de l'hôpital de Plombières en Lorraine par Ancel, sire de Darnieulles, qui en confie l'administration au prieuré d'Hérival[2].
-Fondation de la pharmacie royale (« Apteka Królewska ») de Toruń, en Pologne, par Albert, apothicaire venu de Breslau[3].
-À Apt, dans le comté de Provence, Guillaume Hortulano, prévôt du chapitre de la cathédrale Sainte-Anne, fonde un hôpital qu'il place sous le patronage de saint Castor, et qui fusionne peu après avec l'hôpital Saint-Benoît[4].
-Une maladrerie Saint-Lazare est attestée à Chorges, dans le Dauphiné[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Au procès pour erreur médicale intenté à Marseille au médecin juif Abraham Bondavin, « le choix des experts écarte toute idée de discrimination » et l'enjeu est à situer plutôt entre la pratique médicale conservatrice, scolastique  et humoriste des plaignants et les expérimentations innovantes de l'accusé.
+Fondation de l'hôpital de Plombières en Lorraine par Ancel, sire de Darnieulles, qui en confie l'administration au prieuré d'Hérival.
+Fondation de la pharmacie royale (« Apteka Królewska ») de Toruń, en Pologne, par Albert, apothicaire venu de Breslau.
+À Apt, dans le comté de Provence, Guillaume Hortulano, prévôt du chapitre de la cathédrale Sainte-Anne, fonde un hôpital qu'il place sous le patronage de saint Castor, et qui fusionne peu après avec l'hôpital Saint-Benoît.
+Une maladrerie Saint-Lazare est attestée à Chorges, dans le Dauphiné.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1389_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1389_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean-Jacques de Marles (date de naissance inconnue), maître-régent à la faculté de médecine de Paris, médecin du roi Charles V en 1379, et de Charles VI à partir de 1383[6],[7].
-Giovanni Santasofia (date de naissance inconnue), médecin de Louis de Gonzague à Mantoue, professeur à Padoue, auteur d'un Consilium ad pestilentiam, commentateur de  l'Ars medica de Galien[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean-Jacques de Marles (date de naissance inconnue), maître-régent à la faculté de médecine de Paris, médecin du roi Charles V en 1379, et de Charles VI à partir de 1383,.
+Giovanni Santasofia (date de naissance inconnue), médecin de Louis de Gonzague à Mantoue, professeur à Padoue, auteur d'un Consilium ad pestilentiam, commentateur de  l'Ars medica de Galien.</t>
         </is>
       </c>
     </row>
